--- a/Gantt_Proyecto_Integrado_Urrego_Juan.xlsx
+++ b/Gantt_Proyecto_Integrado_Urrego_Juan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositorios\EA_proyecto_integrado_V_20251-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AAE463-A71D-4985-A920-DD43750EBA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D436B6D9-2CB1-4D19-8689-DF1DF02BB412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{377FBAF4-28BC-4853-BCB5-4DBC4DD5D549}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{377FBAF4-28BC-4853-BCB5-4DBC4DD5D549}"/>
   </bookViews>
   <sheets>
     <sheet name="Dinamica" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -232,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -246,133 +246,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
@@ -787,22 +666,22 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1184,13 +1063,13 @@
                   <c:v>45987</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45990</c:v>
+                  <c:v>45992</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>45992</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45993</c:v>
+                  <c:v>45998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1286,7 +1165,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
@@ -1331,13 +1210,13 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2607,13 +2486,13 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>775607</xdr:colOff>
+      <xdr:colOff>766082</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>186418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1074964</xdr:colOff>
+      <xdr:colOff>988373</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>979714</xdr:rowOff>
     </xdr:to>
@@ -3247,8 +3126,8 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>2670711</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" Requires="sle15">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+      <mc:Choice Requires="sle15">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Sprint">
@@ -3271,7 +3150,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -3437,7 +3316,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:pPr marL="0" indent="0"/>
-            <a:t>0%</a:t>
+            <a:t>100%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -3491,13 +3370,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>280147</xdr:colOff>
+      <xdr:colOff>280146</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>370913</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>173182</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1246908</xdr:rowOff>
     </xdr:to>
@@ -3866,7 +3745,85 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4CCBC73D-3E23-402A-85F0-D53D5A52D237}" name="TablaDinámica1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D11422A-BF63-44B1-AC15-7967264F94B4}" name="TablaDinámica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L1:M3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField numFmtId="9" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Cuenta de HA/HU" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="11">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4CCBC73D-3E23-402A-85F0-D53D5A52D237}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="A1:B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -3909,104 +3866,26 @@
     <dataField name="Suma de Puntos" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="6">
-    <format dxfId="35">
+    <format dxfId="17">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="15">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="13">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8D11422A-BF63-44B1-AC15-7967264F94B4}" name="TablaDinámica2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L1:M3" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField numFmtId="9" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Cuenta de HA/HU" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="41">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="40">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="39">
-      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="38">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="37">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="36">
+    <format dxfId="12">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -4058,18 +3937,18 @@
     <tableColumn id="3" xr3:uid="{00ABC38C-390F-4766-824B-2F15B0235DD3}" name="HA/HU"/>
     <tableColumn id="4" xr3:uid="{E4B14C9C-B3D1-4E62-B6C1-5C3E7193C4E8}" name="Sprint"/>
     <tableColumn id="5" xr3:uid="{C0FB97C9-FF11-4C05-9578-0FE429C022BE}" name="Responsable"/>
-    <tableColumn id="11" xr3:uid="{9BFA5D7A-4469-4BB7-8F17-A9B85136AF79}" name="Rol" dataDxfId="29">
+    <tableColumn id="11" xr3:uid="{9BFA5D7A-4469-4BB7-8F17-A9B85136AF79}" name="Rol" dataDxfId="5">
       <calculatedColumnFormula>IF(Tabla1[[#This Row],[Responsable]]="0","bankend",IF(Tabla1[[#This Row],[Responsable]]="0","Frontend","PO"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{4103DEAE-C8AE-4058-909E-25798B1924E0}" name="Puntos" dataDxfId="28">
+    <tableColumn id="12" xr3:uid="{4103DEAE-C8AE-4058-909E-25798B1924E0}" name="Puntos" dataDxfId="4">
       <calculatedColumnFormula>SUM(G5:G9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9658A137-6834-485F-952C-FF312235ECC7}" name="Progreso" dataDxfId="27" dataCellStyle="Porcentaje"/>
-    <tableColumn id="13" xr3:uid="{38B4B3E7-3039-4CC3-800F-72D7E2EAA0DC}" name="Restante" dataDxfId="26" dataCellStyle="Porcentaje">
+    <tableColumn id="6" xr3:uid="{9658A137-6834-485F-952C-FF312235ECC7}" name="Progreso" dataDxfId="3" dataCellStyle="Porcentaje"/>
+    <tableColumn id="13" xr3:uid="{38B4B3E7-3039-4CC3-800F-72D7E2EAA0DC}" name="Restante" dataDxfId="2" dataCellStyle="Porcentaje">
       <calculatedColumnFormula>1-Tabla1[[#This Row],[Progreso]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{18580114-7AC3-46AF-B84D-B64C13A89444}" name="Fecha Inicio" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{66459456-99D2-4A02-A292-EE9DE084CE52}" name="Fecha fin" dataDxfId="24">
+    <tableColumn id="7" xr3:uid="{18580114-7AC3-46AF-B84D-B64C13A89444}" name="Fecha Inicio" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{66459456-99D2-4A02-A292-EE9DE084CE52}" name="Fecha fin" dataDxfId="0">
       <calculatedColumnFormula>J4+L4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{FF0B868C-4BFA-4652-98E1-D06DCE40F38E}" name="Duracion Dias"/>
@@ -4416,7 +4295,7 @@
     <col min="13" max="13" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -4443,11 +4322,11 @@
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
     </row>
-    <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="5">
         <v>384</v>
       </c>
       <c r="C2" s="5"/>
@@ -4462,7 +4341,7 @@
       <c r="L2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="5">
         <v>18</v>
       </c>
       <c r="N2" s="5"/>
@@ -4470,11 +4349,11 @@
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
     </row>
-    <row r="3" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="5">
         <v>384</v>
       </c>
       <c r="C3" s="5"/>
@@ -4489,7 +4368,7 @@
       <c r="L3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="5">
         <v>18</v>
       </c>
       <c r="N3" s="5"/>
@@ -4497,7 +4376,7 @@
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4514,7 +4393,7 @@
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4531,7 +4410,7 @@
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -4550,7 +4429,7 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -4569,7 +4448,7 @@
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -4588,7 +4467,7 @@
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -4607,7 +4486,7 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4626,7 +4505,7 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="1:17" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -4654,8 +4533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26DF96C-5E03-4E98-A058-3CBF2B4FF1EA}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="47" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4668,6 +4547,7 @@
     <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.875" customWidth="1"/>
     <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="12.75" customWidth="1"/>
     <col min="12" max="12" width="15.75" customWidth="1"/>
     <col min="13" max="13" width="20.375" customWidth="1"/>
   </cols>
@@ -4751,14 +4631,14 @@
       </c>
       <c r="K4" s="1">
         <f>J4+L4</f>
-        <v>45998</v>
+        <v>46001</v>
       </c>
       <c r="L4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="M4">
         <f>L4*H4</f>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5283,11 +5163,11 @@
         <v>60</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2">
         <f>1-Tabla1[[#This Row],[Progreso]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1">
         <v>45985</v>
@@ -5301,7 +5181,7 @@
       </c>
       <c r="M16">
         <f t="shared" ref="M16:M21" si="4">L16*H16</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5328,17 +5208,17 @@
         <v>13</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="2">
         <f>1-Tabla1[[#This Row],[Progreso]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" s="1">
         <v>45985</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" ref="K16:K20" si="5">J17+L17</f>
+        <f t="shared" ref="K17:K20" si="5">J17+L17</f>
         <v>45991</v>
       </c>
       <c r="L17">
@@ -5346,7 +5226,7 @@
       </c>
       <c r="M17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5373,11 +5253,11 @@
         <v>21</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2">
         <f>1-Tabla1[[#This Row],[Progreso]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" s="1">
         <v>45987</v>
@@ -5391,7 +5271,7 @@
       </c>
       <c r="M18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5418,25 +5298,25 @@
         <v>5</v>
       </c>
       <c r="H19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2">
         <f>1-Tabla1[[#This Row],[Progreso]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="1">
-        <v>45990</v>
+        <v>45992</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="5"/>
-        <v>45994</v>
+        <v>45998</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M19">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5463,25 +5343,25 @@
         <v>8</v>
       </c>
       <c r="H20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2">
         <f>1-Tabla1[[#This Row],[Progreso]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="1">
         <v>45992</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="5"/>
-        <v>45997</v>
+        <v>45999</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M20">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5508,25 +5388,25 @@
         <v>13</v>
       </c>
       <c r="H21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="2">
         <f>1-Tabla1[[#This Row],[Progreso]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="1">
-        <v>45993</v>
+        <v>45998</v>
       </c>
       <c r="K21" s="1">
         <f>J21+L21</f>
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M21">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
@@ -5544,7 +5424,7 @@
       </c>
       <c r="B27" s="7">
         <f>MAX(Tabla1[Fecha fin])</f>
-        <v>45998</v>
+        <v>46001</v>
       </c>
     </row>
   </sheetData>
